--- a/VennOutput/Trimmed_Combined_Output.xlsx
+++ b/VennOutput/Trimmed_Combined_Output.xlsx
@@ -522,7 +522,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN_NOVAVAX</t>
+          <t>Pfizer_mono_Janssen_Novavax</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN_NOVAVAX</t>
+          <t>Pfizer_mono_Janssen_Novavax</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JANSSEN_NOVAVAX</t>
+          <t>Janssen_Novavax</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -758,7 +758,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JANSSEN_NOVAVAX</t>
+          <t>Janssen_Novavax</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_MODERNA_BIVALENT_NOVAVAX</t>
+          <t>Pfizer_bi_Moderna_mono_Moderna_bi_Novavax</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -932,7 +932,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT_NOVAVAX</t>
+          <t>Pfizer_bi_Moderna_bi_Novavax</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT_NOVAVAX</t>
+          <t>Pfizer_bi_Moderna_bi_Novavax</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1106,7 +1106,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT_NOVAVAX</t>
+          <t>Moderna_bi_Novavax</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_NOVAVAX</t>
+          <t>Pfizer_bi_Novavax</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1230,7 +1230,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PFIZER_NOVAVAX</t>
+          <t>Pfizer_mono_Novavax</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1292,7 +1292,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PFIZER_NOVAVAX</t>
+          <t>Pfizer_mono_Novavax</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1354,7 +1354,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PFIZER_NOVAVAX</t>
+          <t>Pfizer_mono_Novavax</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1416,7 +1416,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PFIZER_NOVAVAX</t>
+          <t>Pfizer_mono_Novavax</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PFIZER_NOVAVAX</t>
+          <t>Pfizer_mono_Novavax</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PFIZER_NOVAVAX</t>
+          <t>Pfizer_mono_Novavax</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1602,7 +1602,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1639,7 +1639,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1676,7 +1676,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1750,7 +1750,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1787,7 +1787,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1824,7 +1824,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1861,7 +1861,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1898,7 +1898,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1935,7 +1935,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2009,7 +2009,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2046,7 +2046,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2083,7 +2083,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2120,7 +2120,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2194,7 +2194,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2231,7 +2231,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2268,7 +2268,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2305,7 +2305,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2342,7 +2342,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2379,7 +2379,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2453,7 +2453,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2490,7 +2490,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2527,7 +2527,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2564,7 +2564,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2675,7 +2675,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2712,7 +2712,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2749,7 +2749,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2786,7 +2786,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2823,7 +2823,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2897,7 +2897,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2934,7 +2934,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2971,7 +2971,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3008,7 +3008,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3045,7 +3045,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3082,7 +3082,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3119,7 +3119,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3193,7 +3193,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3230,7 +3230,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3267,7 +3267,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3341,7 +3341,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3378,7 +3378,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3415,7 +3415,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3452,7 +3452,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3489,7 +3489,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3526,7 +3526,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3563,7 +3563,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3600,7 +3600,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3637,7 +3637,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3674,7 +3674,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3711,7 +3711,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3748,7 +3748,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3785,7 +3785,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3822,7 +3822,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3859,7 +3859,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3896,7 +3896,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3933,7 +3933,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3970,7 +3970,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4007,7 +4007,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4044,7 +4044,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4081,7 +4081,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4118,7 +4118,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4155,7 +4155,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4192,7 +4192,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4229,7 +4229,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4266,7 +4266,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4303,7 +4303,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4377,7 +4377,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4414,7 +4414,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4451,7 +4451,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4488,7 +4488,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4525,7 +4525,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4562,7 +4562,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4599,7 +4599,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4636,7 +4636,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4673,7 +4673,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4710,7 +4710,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4747,7 +4747,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4784,7 +4784,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4821,7 +4821,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4858,7 +4858,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4895,7 +4895,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4932,7 +4932,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4969,7 +4969,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5006,7 +5006,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NOVAVAX</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5043,7 +5043,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PFIZER_PFIZER_BIVALENT_MODERNA_BIVALENT_JANSSEN</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi_Janssen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5155,7 +5155,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT_JANSSEN</t>
+          <t>Pfizer_bi_Moderna_bi_Janssen</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5242,7 +5242,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA_BIVALENT_JANSSEN</t>
+          <t>Pfizer_mono_Moderna_bi_Janssen</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5329,7 +5329,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA_JANSSEN</t>
+          <t>Pfizer_mono_Moderna_mono_Janssen</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5416,7 +5416,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PFIZER_PFIZER_BIVALENT_JANSSEN</t>
+          <t>Pfizer_mono_Pfizer_bi_Janssen</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5503,7 +5503,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PFIZER_PFIZER_BIVALENT_JANSSEN</t>
+          <t>Pfizer_mono_Pfizer_bi_Janssen</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_JANSSEN</t>
+          <t>Pfizer_bi_Janssen</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5652,7 +5652,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_JANSSEN</t>
+          <t>Pfizer_bi_Janssen</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5714,7 +5714,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_JANSSEN</t>
+          <t>Pfizer_bi_Janssen</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5776,7 +5776,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_JANSSEN</t>
+          <t>Pfizer_bi_Janssen</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5838,7 +5838,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5900,7 +5900,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5962,7 +5962,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6024,7 +6024,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6086,7 +6086,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6148,7 +6148,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6210,7 +6210,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6272,7 +6272,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6334,7 +6334,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6396,7 +6396,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6458,7 +6458,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6495,7 +6495,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6532,7 +6532,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6569,7 +6569,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6606,7 +6606,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6643,7 +6643,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6680,7 +6680,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6717,7 +6717,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6754,7 +6754,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6791,7 +6791,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6828,7 +6828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6865,7 +6865,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6902,7 +6902,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6939,7 +6939,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6976,7 +6976,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7013,7 +7013,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7050,7 +7050,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7087,7 +7087,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7124,7 +7124,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7161,7 +7161,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7198,7 +7198,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7235,7 +7235,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7272,7 +7272,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7309,7 +7309,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7346,7 +7346,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7383,7 +7383,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7420,7 +7420,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -7457,7 +7457,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -7494,7 +7494,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -7531,7 +7531,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7568,7 +7568,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7605,7 +7605,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PFIZER_PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7692,7 +7692,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PFIZER_PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7779,7 +7779,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PFIZER_PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -7866,7 +7866,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PFIZER_PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7953,7 +7953,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PFIZER_PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8040,7 +8040,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PFIZER_PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8127,7 +8127,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8189,7 +8189,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8251,7 +8251,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8313,7 +8313,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8375,7 +8375,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8437,7 +8437,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8499,7 +8499,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8561,7 +8561,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8623,7 +8623,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -8685,7 +8685,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -8747,7 +8747,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -8809,7 +8809,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -8871,7 +8871,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -8933,7 +8933,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -8995,7 +8995,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9057,7 +9057,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9119,7 +9119,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9181,7 +9181,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9243,7 +9243,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9305,7 +9305,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT_MODERNA_BIVALENT</t>
+          <t>Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9367,7 +9367,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA_BIVALENT</t>
+          <t>Pfizer_mono_Moderna_bi</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9429,7 +9429,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t>Moderna_bi</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9466,7 +9466,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_mono_Moderna_mono</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9528,7 +9528,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna_mono</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9565,7 +9565,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna_mono</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9602,7 +9602,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna_mono</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -9639,7 +9639,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna_mono</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -9676,7 +9676,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna_mono</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -9713,7 +9713,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna_mono</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -9750,7 +9750,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna_mono</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -9787,7 +9787,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna_mono</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -9824,7 +9824,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna_mono</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -9861,7 +9861,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna_mono</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -9898,7 +9898,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna_mono</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -9935,7 +9935,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>PFIZER_PFIZER_BIVALENT</t>
+          <t>Pfizer_mono_Pfizer_bi</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -9997,7 +9997,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PFIZER_PFIZER_BIVALENT</t>
+          <t>Pfizer_mono_Pfizer_bi</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -10059,7 +10059,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -10096,7 +10096,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -10133,7 +10133,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -10170,7 +10170,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -10207,7 +10207,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -10244,7 +10244,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -10281,7 +10281,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -10318,7 +10318,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -10355,7 +10355,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -10392,7 +10392,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -10429,7 +10429,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -10466,7 +10466,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t>Pfizer_bi</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -10503,7 +10503,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -10540,7 +10540,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -10577,7 +10577,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -10614,7 +10614,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -10651,7 +10651,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -10688,7 +10688,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -10725,7 +10725,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -10762,7 +10762,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -10799,7 +10799,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -10836,7 +10836,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -10873,7 +10873,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -10910,7 +10910,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -10947,7 +10947,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -10984,7 +10984,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -11021,7 +11021,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">

--- a/VennOutput/Trimmed_Combined_Output.xlsx
+++ b/VennOutput/Trimmed_Combined_Output.xlsx
@@ -497,7 +497,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Pfizer_bi_Moderna_bi_Janssen</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi_Janssen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Moderna_bi_Janssen</t>
+          <t>Pfizer_mono_Moderna_bi_Janssen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -783,7 +783,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Moderna_mono_Janssen</t>
+          <t>Pfizer_mono_Moderna_mono_Janssen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -870,7 +870,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Pfizer_bi_Janssen</t>
+          <t>Pfizer_mono_Pfizer_bi_Janssen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Pfizer_bi_Janssen</t>
+          <t>Pfizer_mono_Pfizer_bi_Janssen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1292,7 +1292,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1354,7 +1354,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1416,7 +1416,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1602,7 +1602,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1664,7 +1664,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1726,7 +1726,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1850,7 +1850,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1974,7 +1974,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Janssen</t>
+          <t>Pfizer_mono_Janssen</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3344,7 +3344,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Pfizer_bi_Moderna_bi</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3431,7 +3431,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Pfizer_bi_Moderna_bi</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3518,7 +3518,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Pfizer_bi_Moderna_bi</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3605,7 +3605,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Pfizer_bi_Moderna_bi</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3692,7 +3692,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Pfizer_bi_Moderna_bi</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3779,7 +3779,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Pfizer_bi_Moderna_bi</t>
+          <t>Pfizer_mono_Pfizer_bi_Moderna_bi</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5230,7 +5230,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Moderna_bi</t>
+          <t>Pfizer_mono_Moderna_bi</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5366,7 +5366,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Moderna_mono</t>
+          <t>Pfizer_mono_Moderna_mono</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5835,7 +5835,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Pfizer_bi</t>
+          <t>Pfizer_mono_Pfizer_bi</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5897,7 +5897,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent_Pfizer_bi</t>
+          <t>Pfizer_mono_Pfizer_bi</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6440,7 +6440,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6477,7 +6477,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6514,7 +6514,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6551,7 +6551,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6588,7 +6588,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6625,7 +6625,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6662,7 +6662,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6699,7 +6699,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6736,7 +6736,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6773,7 +6773,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6810,7 +6810,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6847,7 +6847,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6884,7 +6884,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6921,7 +6921,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6958,7 +6958,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6995,7 +6995,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7032,7 +7032,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7069,7 +7069,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7106,7 +7106,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7143,7 +7143,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7180,7 +7180,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Pfizer Monovalent</t>
+          <t>Pfizer_mono</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
